--- a/09-01-需求调研/09-01-需求调研-05-My Team.xlsx
+++ b/09-01-需求调研/09-01-需求调研-05-My Team.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>小组编号</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>个人技能分析</t>
-  </si>
-  <si>
-    <t>统一分配，暂时空缺</t>
   </si>
   <si>
     <t>洪洋大小姐不想爆肝</t>
@@ -125,12 +122,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,19 +146,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,9 +187,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +257,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,45 +282,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,31 +296,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,150 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,25 +542,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -580,7 +561,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -635,16 +605,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -654,152 +644,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,12 +807,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1181,7 +1165,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1223,169 +1207,169 @@
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="2">
+        <v>16211028</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
-        <v>16211028</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="2">
+        <v>15652575067</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="6">
-        <v>15652575067</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6">
+      <c r="C3" s="6"/>
+      <c r="D3" s="2">
         <v>16211085</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13552184414</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6">
-        <v>13552184414</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2">
         <v>16211093</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="2">
+        <v>15652591221</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="6">
-        <v>15652591221</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2">
         <v>16211079</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="2">
+        <v>15652579552</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="6">
-        <v>15652579552</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6">
+      <c r="C6" s="6"/>
+      <c r="D6" s="2">
         <v>16211088</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="2">
+        <v>15652587806</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="6">
-        <v>15652587806</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6">
+      <c r="C7" s="6"/>
+      <c r="D7" s="2">
         <v>16211117</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="2">
+        <v>15652587059</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="6">
-        <v>15652587059</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6">
+      <c r="C8" s="6"/>
+      <c r="D8" s="2">
         <v>16211077</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="2">
+        <v>15811553886</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="6">
-        <v>15811553886</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="6">
+      <c r="C9" s="7"/>
+      <c r="D9" s="2">
         <v>16211125</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="2">
+        <v>15652581655</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="6">
-        <v>15652581655</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
